--- a/pageRatio/pageRatio.xlsx
+++ b/pageRatio/pageRatio.xlsx
@@ -592,10 +592,10 @@
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>0.9998250547</v>
+        <v>0.874864105</v>
       </c>
       <c r="C12" s="6">
-        <v>0.0001749453296</v>
+        <v>0.125135895</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="20.25">
